--- a/src/main/resources/prof.xlsx
+++ b/src/main/resources/prof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\MGL804_Projet\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316490AA-5A1A-4917-AEF4-730EDF9F6C91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57FCF9C-CA21-41E9-8FAD-48A0C960ADC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="26190" windowHeight="15435" xr2:uid="{C07A8BC1-A8E7-4E61-932B-32189E793AC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Comit</t>
   </si>
@@ -81,9 +81,6 @@
     <t>after</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>file 2</t>
   </si>
   <si>
@@ -103,6 +100,12 @@
   </si>
   <si>
     <t>QR2. Les opérations de refactoring réussissent-elles à corriger les codes smells destinées?</t>
+  </si>
+  <si>
+    <t>delta-result</t>
+  </si>
+  <si>
+    <t>trier par opp ex (moove meth) et dir par ex que cette refactor a corriger 10% des smell 5….</t>
   </si>
 </sst>
 </file>
@@ -124,12 +127,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,8 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,7 +487,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,14 +553,14 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -549,28 +573,32 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
